--- a/voter_registry.xlsx
+++ b/voter_registry.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
